--- a/Results/resultados_regresiones_ols.xlsx
+++ b/Results/resultados_regresiones_ols.xlsx
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.4633273674048333</v>
+        <v>0.4030976049049029</v>
       </c>
     </row>
     <row r="2">
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2764290946519952</v>
+        <v>0.2892992812609152</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3284912373369946</v>
+        <v>0.3404847182103248</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3761438574532627</v>
+        <v>0.3326554295679348</v>
       </c>
     </row>
     <row r="5">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3245262786815548</v>
+        <v>0.3595556653328901</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.480645156641999</v>
+        <v>0.3872376226745847</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.444431194886009</v>
+        <v>0.2903928263120256</v>
       </c>
     </row>
     <row r="8">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4204382439206484</v>
+        <v>0.4152753050597071</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4782074630951696</v>
+        <v>0.3109068240986995</v>
       </c>
     </row>
     <row r="10">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5173267115727167</v>
+        <v>0.3610734442332767</v>
       </c>
     </row>
     <row r="11">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2645395901720705</v>
+        <v>0.3336020051966849</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.3198604260180065</v>
+        <v>0.2435296378992828</v>
       </c>
     </row>
     <row r="2">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.082999248667875</v>
+        <v>0.09930998021185289</v>
       </c>
     </row>
     <row r="3">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1489789938528249</v>
+        <v>0.1641786527814016</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2093704332080953</v>
+        <v>0.1542563859870857</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1439540957548417</v>
+        <v>0.188347773887227</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3418077232690681</v>
+        <v>0.2234298584390777</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2959128014396946</v>
+        <v>0.1006958590885076</v>
       </c>
     </row>
     <row r="8">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2655058932855743</v>
+        <v>0.2589627628479456</v>
       </c>
     </row>
     <row r="9">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.338718369071106</v>
+        <v>0.1266937968775598</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3882952384287894</v>
+        <v>0.1902712956619744</v>
       </c>
     </row>
     <row r="11">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06793136180222792</v>
+        <v>0.1554560065858978</v>
       </c>
     </row>
   </sheetData>
@@ -689,88 +689,88 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.342136524082125</v>
+        <v>0.8417814867344535</v>
       </c>
       <c r="C1" t="n">
-        <v>0.4792351740960902</v>
+        <v>0.2636718498636896</v>
       </c>
       <c r="D1" t="n">
-        <v>0.5998977636405729</v>
+        <v>0.3491375520941665</v>
       </c>
       <c r="E1" t="n">
-        <v>0.06269618499385017</v>
+        <v>0.001831926995127487</v>
       </c>
       <c r="F1" t="n">
-        <v>0.3565450246973236</v>
+        <v>0.02952172182078986</v>
       </c>
       <c r="G1" t="n">
-        <v>0.007632972279240821</v>
+        <v>0.007424627989436793</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9234243431077279</v>
+        <v>0.2057611122359624</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5255868743491658</v>
+        <v>0.5190950201301034</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6135030204606782</v>
+        <v>0.6319878365243203</v>
       </c>
       <c r="K1" t="n">
-        <v>0.7579795938126798</v>
+        <v>0.7990613037635395</v>
       </c>
       <c r="L1" t="n">
-        <v>0.474978408899924</v>
+        <v>0.6560588825519099</v>
       </c>
       <c r="M1" t="n">
-        <v>0.1214620170898946</v>
+        <v>0.1177474474192865</v>
       </c>
       <c r="N1" t="n">
-        <v>0.004961717486982894</v>
+        <v>0.2879516253139552</v>
       </c>
       <c r="O1" t="n">
-        <v>0.1301029421891042</v>
+        <v>0.6800990368288748</v>
       </c>
       <c r="P1" t="n">
-        <v>7.657097468777757e-05</v>
+        <v>0.004373669065591547</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.1573070215612998</v>
+        <v>0.5513279371292847</v>
       </c>
       <c r="R1" t="n">
-        <v>8.313302457504172e-08</v>
+        <v>0.0001786393149171622</v>
       </c>
       <c r="S1" t="n">
-        <v>0.6529726821297168</v>
+        <v>0.007915089335447328</v>
       </c>
       <c r="T1" t="n">
-        <v>0.08147853415795922</v>
+        <v>0.2875377601078297</v>
       </c>
       <c r="U1" t="n">
-        <v>0.0001710031459478308</v>
+        <v>0.007031975460814187</v>
       </c>
       <c r="V1" t="n">
-        <v>0.3221667875227656</v>
+        <v>0.4518882736233086</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07901134182893588</v>
+        <v>0.2778554665154113</v>
       </c>
       <c r="X1" t="n">
-        <v>0.2001541420172955</v>
+        <v>0.3721994913173464</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.9231378385028637</v>
+        <v>0.5799295172998674</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.005469225972066665</v>
+        <v>0.003294461839891532</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.1093177874050075</v>
+        <v>0.03885444649476135</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.3921592542454448</v>
+        <v>0.411155395245513</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.4079668199549563</v>
+        <v>0.781898728334977</v>
       </c>
     </row>
     <row r="2">
@@ -780,88 +780,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1738157296937069</v>
+        <v>0.02375043742981642</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02148546646090712</v>
+        <v>0.1073572271793775</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06315002609433568</v>
+        <v>0.2067849033912181</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9379824589772128</v>
+        <v>0.04766549373658659</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1001554530470518</v>
+        <v>0.001630250093149353</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04474739940104468</v>
+        <v>0.04553711226093</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8036202207018882</v>
+        <v>0.1859859845544137</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6030099994499161</v>
+        <v>0.5964220914091923</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9489566499581922</v>
+        <v>0.8387939777824247</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4376902043168345</v>
+        <v>0.5095237825370218</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5122017415166068</v>
+        <v>0.5732824205411795</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05292378568367126</v>
+        <v>0.04331917708023224</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6829496365170086</v>
+        <v>0.9224982834245117</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9424403459660586</v>
+        <v>0.1051921292276209</v>
       </c>
       <c r="P2" t="n">
-        <v>0.937535503721375</v>
+        <v>0.364261112236452</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4567952842038123</v>
+        <v>0.3434480757416509</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5638481283951762</v>
+        <v>0.8910559364585109</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9515700105381514</v>
+        <v>0.008314958177435924</v>
       </c>
       <c r="T2" t="n">
-        <v>0.698899619113021</v>
+        <v>0.7470198061058215</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8326381557319618</v>
+        <v>0.9185833435084145</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4902050105009719</v>
+        <v>0.4310305040180091</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4656438996639912</v>
+        <v>0.7507388546658571</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3942999929285201</v>
+        <v>0.1615298508565937</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5997165918290692</v>
+        <v>0.3297530858597817</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.4905700013616229</v>
+        <v>0.5198003528585293</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3752758936098476</v>
+        <v>0.1834255894586184</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9350151545226942</v>
+        <v>0.7896326947511115</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4148232732406159</v>
+        <v>0.4948963109313599</v>
       </c>
     </row>
     <row r="3">
@@ -871,88 +871,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9522381256952358</v>
+        <v>0.5244635428057169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06952147005500202</v>
+        <v>0.4833578709185374</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08099363510703614</v>
+        <v>0.4945863166239712</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6126264427717794</v>
+        <v>0.7392169627058541</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5871420613713123</v>
+        <v>0.7700725278544536</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7817570202722612</v>
+        <v>0.5417686205049554</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3545788971337094</v>
+        <v>0.9592899506347395</v>
       </c>
       <c r="I3" t="n">
-        <v>0.370800715160804</v>
+        <v>0.191849511418606</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4685646863770496</v>
+        <v>0.05999013637536151</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1079572020068438</v>
+        <v>0.5318941978196434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2775873302761551</v>
+        <v>0.518242482596889</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5685219209480854</v>
+        <v>0.7368435568381893</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8623529925006574</v>
+        <v>0.6819007309223544</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1800186769331255</v>
+        <v>0.07651620282399395</v>
       </c>
       <c r="P3" t="n">
-        <v>0.458569537408814</v>
+        <v>0.1742364844340519</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7264273261119973</v>
+        <v>0.5439639760151462</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3367526576519799</v>
+        <v>0.349926252240898</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2519625437068329</v>
+        <v>0.9879805070976357</v>
       </c>
       <c r="T3" t="n">
-        <v>0.009136586792298706</v>
+        <v>0.04553170347304551</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1601548006502876</v>
+        <v>0.1359252229724418</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6064571705526183</v>
+        <v>0.518441377761188</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1546495517779896</v>
+        <v>0.2512783321988005</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6508114868434093</v>
+        <v>0.9232696201353121</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7904366437160978</v>
+        <v>0.6002129334558679</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1233917813609497</v>
+        <v>0.1117077736217078</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8505202569627028</v>
+        <v>0.9742033261554033</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1229247311564688</v>
+        <v>0.02735232514285631</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7510072766943201</v>
+        <v>0.6161221705900475</v>
       </c>
     </row>
     <row r="4">
@@ -962,88 +962,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5209875075001994</v>
+        <v>0.3999929792668998</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01315341281208931</v>
+        <v>0.594849250364478</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01291237565180101</v>
+        <v>0.5009214037373749</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1613826388291565</v>
+        <v>0.5008845239930885</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1194955156562978</v>
+        <v>0.4348552374383534</v>
       </c>
       <c r="G4" t="n">
-        <v>0.420437334848717</v>
+        <v>0.2743475713508248</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2133009745588205</v>
+        <v>0.1533272998407588</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03419489540295951</v>
+        <v>0.04739015087126344</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9160175291558829</v>
+        <v>0.610144131673711</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2040248331439244</v>
+        <v>0.357596775561445</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2747642227827309</v>
+        <v>0.8507971503080614</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1247020433523005</v>
+        <v>0.3746069718000563</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9751410488106567</v>
+        <v>0.4831986327882173</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01758507230269296</v>
+        <v>0.2714807508982401</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8244570717036996</v>
+        <v>0.7634342598972141</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6289158171862248</v>
+        <v>0.3259106393935226</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7796776636430042</v>
+        <v>0.9511492261852659</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1742346067730375</v>
+        <v>0.4295554436179836</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2202813623799275</v>
+        <v>0.5093743523061239</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1661163171598526</v>
+        <v>0.4459791346892137</v>
       </c>
       <c r="V4" t="n">
-        <v>0.002715112234667197</v>
+        <v>0.001850378147133524</v>
       </c>
       <c r="W4" t="n">
-        <v>0.08367953209326268</v>
+        <v>0.3099528511930418</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0327526560679826</v>
+        <v>0.04465472538891219</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4821683180738829</v>
+        <v>0.4644671381394628</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.09389100355256436</v>
+        <v>0.382694180519352</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5439685889259174</v>
+        <v>0.8667734416878293</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8040467370665501</v>
+        <v>0.5480697437518636</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1222917312841366</v>
+        <v>0.1008714083551707</v>
       </c>
     </row>
     <row r="5">
@@ -1053,88 +1053,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7950526926475089</v>
+        <v>0.9676879151660921</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4611078080345772</v>
+        <v>0.8214966880898039</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2851641395566343</v>
+        <v>0.8869826472756899</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8744954298142428</v>
+        <v>0.567881840725148</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2668580268436168</v>
+        <v>0.838718895940701</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4428729251578408</v>
+        <v>0.5604100332889395</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9790721432448295</v>
+        <v>0.6174231498601989</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8589212823172208</v>
+        <v>0.4156261258701078</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01543813555757507</v>
+        <v>0.0959151528938158</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4447875480115009</v>
+        <v>0.0009594747775278363</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9454474805515485</v>
+        <v>0.7593440963481126</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2082533489262051</v>
+        <v>0.2521246494871989</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6703971794738639</v>
+        <v>0.7793917313828795</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3350592940616453</v>
+        <v>0.757536118087588</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8791497976933302</v>
+        <v>0.4694866880546643</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5748555176990753</v>
+        <v>0.7736265417726385</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2523034308443742</v>
+        <v>0.6274156757837321</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6660476345311291</v>
+        <v>0.7816725545714865</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3612205727096803</v>
+        <v>0.7770169236363876</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06825187402520969</v>
+        <v>0.04070206783086384</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9309582847464821</v>
+        <v>0.5010823966092088</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6446568704484958</v>
+        <v>0.3909928104655356</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8170406473858733</v>
+        <v>0.6392350295824945</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5957203181122877</v>
+        <v>0.9112744399661251</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2400786529625163</v>
+        <v>0.5172361175489126</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.348522718975161</v>
+        <v>0.4445103702346196</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8851886659207044</v>
+        <v>0.08301711590572317</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5588769903787676</v>
+        <v>0.03572016107851646</v>
       </c>
     </row>
     <row r="6">
@@ -1144,88 +1144,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7834853814073142</v>
+        <v>0.3147774005698654</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01113774784030246</v>
+        <v>0.4298674233776982</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01002577523974987</v>
+        <v>0.3161471218721411</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5294211878577989</v>
+        <v>0.9802431286894159</v>
       </c>
       <c r="F6" t="n">
-        <v>0.171759688390024</v>
+        <v>0.7949481060874652</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2802017259679844</v>
+        <v>0.9492069433492273</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3588560449401892</v>
+        <v>0.01099640448251929</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01509589515234272</v>
+        <v>0.1514749943147893</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8459197455993492</v>
+        <v>0.6903284920481878</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0006067235892174258</v>
+        <v>0.0880356046506368</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3504933258869661</v>
+        <v>0.344069385570115</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8514850569757901</v>
+        <v>0.4102139721776157</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2251787520471415</v>
+        <v>0.02590616505850565</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4372251749360858</v>
+        <v>0.7750633966047875</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2335708136596406</v>
+        <v>0.01874569565972909</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5338817286832216</v>
+        <v>0.4656361669205806</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7048153123413283</v>
+        <v>0.5689375195707604</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2276017239792937</v>
+        <v>0.7105582192675006</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5663185416983291</v>
+        <v>0.5306707964129873</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5104656751977998</v>
+        <v>0.4986525375516356</v>
       </c>
       <c r="V6" t="n">
-        <v>0.09408224788894269</v>
+        <v>0.10075873057622</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0463697900165156</v>
+        <v>0.08001220489750779</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4182222114000892</v>
+        <v>0.7996792698424606</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9567981616963563</v>
+        <v>0.7602352039454945</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3104015539408729</v>
+        <v>0.769924441704279</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2007532760580716</v>
+        <v>0.2925175752066049</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1954189096379238</v>
+        <v>0.8650224610367548</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7831426047900298</v>
+        <v>0.4291683765846641</v>
       </c>
     </row>
     <row r="7">
@@ -1235,88 +1235,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5963454664860137</v>
+        <v>0.2920738398963575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1381567170725022</v>
+        <v>0.3821186781827148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1201188004025791</v>
+        <v>0.2961824452321481</v>
       </c>
       <c r="E7" t="n">
-        <v>0.127635832915866</v>
+        <v>0.825012803837568</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7649347985822368</v>
+        <v>0.7999982958418128</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3991053361253167</v>
+        <v>0.5507760028074359</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1311435956290202</v>
+        <v>0.005273481513413752</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005729113597552926</v>
+        <v>0.02375509866322267</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3943073292121206</v>
+        <v>0.8475769778896239</v>
       </c>
       <c r="K7" t="n">
-        <v>1.597635196898576e-05</v>
+        <v>0.3305100402426251</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2811257917834679</v>
+        <v>0.3105806739544024</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3232998108796264</v>
+        <v>0.1525650036097164</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03480291929839</v>
+        <v>0.569133100286479</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3210672536979186</v>
+        <v>0.7342952495851673</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6416847536895904</v>
+        <v>0.2173008249145977</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8437540041128431</v>
+        <v>0.5471365870721566</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2992002423945208</v>
+        <v>0.9507628517222423</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1403658166753568</v>
+        <v>0.9367396222074453</v>
       </c>
       <c r="T7" t="n">
-        <v>0.07533965216304579</v>
+        <v>0.1327674316456441</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3840791595687443</v>
+        <v>0.3787835422891292</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3458764784950265</v>
+        <v>0.2406395760716572</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1519243467509962</v>
+        <v>0.2862038385418418</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6253939928137663</v>
+        <v>0.7824933722943119</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9258456661083257</v>
+        <v>0.4857611711927217</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2436760751982175</v>
+        <v>0.2689025544097178</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9203807589012463</v>
+        <v>0.8155493050479693</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.6481382422128326</v>
+        <v>0.9183170976521651</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.5410054454149846</v>
+        <v>0.6554750885270595</v>
       </c>
     </row>
     <row r="8">
@@ -1326,88 +1326,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7095720315425076</v>
+        <v>0.9443383482854528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2091452752060685</v>
+        <v>0.5858933505034312</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1021788905972102</v>
+        <v>0.3662591951160681</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8688047622772037</v>
+        <v>0.9311913975099502</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5957311370817473</v>
+        <v>0.6944701950876915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7544374903438684</v>
+        <v>0.7645170108245611</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2485362270354008</v>
+        <v>0.4109860270972312</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1952048316960988</v>
+        <v>0.08667143397337776</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05095661368219565</v>
+        <v>0.4303273316124967</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4946640708506517</v>
+        <v>0.06887451871575094</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2861303461659048</v>
+        <v>0.4621730912795143</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3607820963181071</v>
+        <v>0.1753037957167058</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9016479084961668</v>
+        <v>0.828584100047533</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7998952019371848</v>
+        <v>0.5648453383693629</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6013238523893207</v>
+        <v>0.2276362937076848</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03702291658117375</v>
+        <v>0.02050809752176837</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4661526767218339</v>
+        <v>0.369542789712032</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7602594691776269</v>
+        <v>0.9317704094593284</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4906130403424431</v>
+        <v>0.4225802506203179</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6133495440976007</v>
+        <v>0.4064499980917357</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1607081546382183</v>
+        <v>0.1040709305522606</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7603465063301599</v>
+        <v>0.8465158125267168</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1808827953429415</v>
+        <v>0.2806749194939931</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6812727615664129</v>
+        <v>0.8551818883372253</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5287086486905019</v>
+        <v>0.738988354175137</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2213123206565115</v>
+        <v>0.1988861789336508</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4665040829298546</v>
+        <v>0.7193711730469352</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1464658315217757</v>
+        <v>0.4656816127412253</v>
       </c>
     </row>
     <row r="9">
@@ -1417,88 +1417,88 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9389101533400618</v>
+        <v>0.2949644561063918</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4940341090841051</v>
+        <v>0.9337071674032049</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5474484503208735</v>
+        <v>0.8599402608134644</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4042474836032175</v>
+        <v>0.6802083169797002</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6670276829479567</v>
+        <v>0.5914073786478056</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2252846483687689</v>
+        <v>0.490312549553987</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1331764415937618</v>
+        <v>0.00159762931370493</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0005499974363386604</v>
+        <v>0.02975452795577127</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6844738728254132</v>
+        <v>0.6446077615759469</v>
       </c>
       <c r="K9" t="n">
-        <v>2.904459506106172e-06</v>
+        <v>0.1742351287833007</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1250111921287297</v>
+        <v>0.1765913661515501</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6883613745721138</v>
+        <v>0.3761387669549118</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2793914265510719</v>
+        <v>0.1402107011382062</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6730011125659909</v>
+        <v>0.4979578834234358</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6093581460261599</v>
+        <v>0.1228597871011351</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8625576366901702</v>
+        <v>0.8522735923876044</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3875604185549729</v>
+        <v>0.4117912722030201</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2779719582473879</v>
+        <v>0.7649089314321287</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0538562274577512</v>
+        <v>0.0769151141107707</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3460939177925803</v>
+        <v>0.2999315100544498</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2887392854090901</v>
+        <v>0.1749236176708919</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1342581056392648</v>
+        <v>0.1565661239306563</v>
       </c>
       <c r="X9" t="n">
-        <v>0.87801317549723</v>
+        <v>0.6742848174792486</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.8690558690323918</v>
+        <v>0.577789290742594</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.4467693496246942</v>
+        <v>0.6368895265167664</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.8678705038095884</v>
+        <v>0.8131471594033337</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6135822941768262</v>
+        <v>0.8044233213985315</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.3845270044705608</v>
+        <v>0.1771085863011296</v>
       </c>
     </row>
     <row r="10">
@@ -1508,88 +1508,88 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.644935993617143</v>
+        <v>0.3094872731782408</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0121730881642173</v>
+        <v>0.2520074025753117</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01129240702464017</v>
+        <v>0.1921585863944089</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1970859194320955</v>
+        <v>0.6463965629433087</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2578140663709323</v>
+        <v>0.7491882889511581</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3991412751026282</v>
+        <v>0.9874266468658348</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1308556616057528</v>
+        <v>0.006616441238172713</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003869563242928938</v>
+        <v>0.05501191355262326</v>
       </c>
       <c r="J10" t="n">
-        <v>0.403129890609473</v>
+        <v>0.7339787541733198</v>
       </c>
       <c r="K10" t="n">
-        <v>2.342959878971784e-05</v>
+        <v>0.22960593280499</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2397454501632075</v>
+        <v>0.2891170290480308</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7545702124237154</v>
+        <v>0.2894522194748244</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03405913912779467</v>
+        <v>0.2692914885135147</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2280067272782515</v>
+        <v>0.8648820522607668</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7778451397196727</v>
+        <v>0.0518915415073987</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7349742999906976</v>
+        <v>0.4618071378682447</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3309008624850901</v>
+        <v>0.8206283842242992</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1382129975508131</v>
+        <v>0.5574622262168094</v>
       </c>
       <c r="T10" t="n">
-        <v>0.238934795214398</v>
+        <v>0.3199237717568565</v>
       </c>
       <c r="U10" t="n">
-        <v>0.367550854757963</v>
+        <v>0.4363721211989342</v>
       </c>
       <c r="V10" t="n">
-        <v>0.07037585870633131</v>
+        <v>0.07450600023249124</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02983617372978242</v>
+        <v>0.1065009152308794</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4421316167477926</v>
+        <v>0.9516500165764568</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9674756938961583</v>
+        <v>0.5516217434159634</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.4392553142916411</v>
+        <v>0.5899499432740849</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.825366211940388</v>
+        <v>0.7055047782757694</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.85217980264872</v>
+        <v>0.4817109205573816</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5436485387304064</v>
+        <v>0.6565520956829426</v>
       </c>
     </row>
     <row r="11">
@@ -1599,88 +1599,88 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6454755082510168</v>
+        <v>0.67541719340247</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2382992608139025</v>
+        <v>0.4142713070738341</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2262052198491039</v>
+        <v>0.3497490153604988</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07689061799523586</v>
+        <v>0.5697041577721571</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9458384186981721</v>
+        <v>0.2098522125000905</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3258317401361858</v>
+        <v>0.9522892936062348</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3625038635173161</v>
+        <v>0.5211712382013325</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9994036263613528</v>
+        <v>0.8733601830190068</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3053351270642285</v>
+        <v>0.0232981045980475</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2691269191801888</v>
+        <v>0.3309088387703384</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9932272459266109</v>
+        <v>0.5176291460229245</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6645530907460635</v>
+        <v>0.2891307398792154</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05512642042829471</v>
+        <v>0.04547812825266392</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7378672994444634</v>
+        <v>0.02513707608558432</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4006224941017074</v>
+        <v>0.7012224860488153</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.523991877081067</v>
+        <v>0.50237705934739</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6079244247273243</v>
+        <v>0.6925659826269743</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1833327480428919</v>
+        <v>0.7272434963618641</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9263796374218838</v>
+        <v>0.4923074357986721</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3062413266851464</v>
+        <v>0.182967218765852</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6280963411891818</v>
+        <v>0.5710568937525491</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7248949718604505</v>
+        <v>0.8941637735836978</v>
       </c>
       <c r="X11" t="n">
-        <v>0.8701635381053076</v>
+        <v>0.7623746243058347</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7975585321033859</v>
+        <v>0.5135954764350976</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.04772943099893342</v>
+        <v>0.1848139241324099</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6978597641059985</v>
+        <v>0.9648845223308125</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.7982866445355304</v>
+        <v>0.6608918047964734</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.9252783674676855</v>
+        <v>0.76656868169978</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.3198604260180065</v>
+        <v>0.2435296378992828</v>
       </c>
     </row>
     <row r="3">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1489789938528249</v>
+        <v>0.1641786527814016</v>
       </c>
     </row>
     <row r="4">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2093704332080953</v>
+        <v>0.1542563859870857</v>
       </c>
     </row>
     <row r="5">
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1439540957548417</v>
+        <v>0.188347773887227</v>
       </c>
     </row>
     <row r="6">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3418077232690681</v>
+        <v>0.2234298584390777</v>
       </c>
     </row>
     <row r="7">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2959128014396946</v>
+        <v>0.1006958590885076</v>
       </c>
     </row>
     <row r="8">
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2655058932855743</v>
+        <v>0.2589627628479456</v>
       </c>
     </row>
     <row r="9">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.338718369071106</v>
+        <v>0.1266937968775598</v>
       </c>
     </row>
     <row r="10">
@@ -1789,7 +1789,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3882952384287894</v>
+        <v>0.1902712956619744</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1554560065858978</v>
       </c>
     </row>
   </sheetData>

--- a/Results/resultados_regresiones_ols.xlsx
+++ b/Results/resultados_regresiones_ols.xlsx
@@ -431,107 +431,107 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.4030976049049029</v>
+        <v>0.4656312315740796</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2892992812609152</v>
+        <v>0.5557770026305787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3404847182103248</v>
+        <v>0.8847674119520766</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3326554295679348</v>
+        <v>0.9813066316034472</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3595556653328901</v>
+        <v>0.5483602824544844</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3872376226745847</v>
+        <v>0.8516980174315374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2903928263120256</v>
+        <v>0.7731602918251106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4152753050597071</v>
+        <v>0.6902441221495704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3109068240986995</v>
+        <v>0.7980698830403878</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
+          <t>OutDeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3610734442332767</v>
+        <v>0.8259688774596836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3336020051966849</v>
+        <v>0.4132278312217763</v>
       </c>
     </row>
   </sheetData>
@@ -560,107 +560,107 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.2435296378992828</v>
+        <v>0.3160079764148219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09930998021185289</v>
+        <v>0.4313945633671408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1641786527814016</v>
+        <v>0.8525022872986581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1542563859870857</v>
+        <v>0.9760724884524125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.188347773887227</v>
+        <v>0.4219011615417401</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2234298584390777</v>
+        <v>0.8101734623123679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1006958590885076</v>
+        <v>0.7096451735361415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2589627628479456</v>
+        <v>0.6035124763514501</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1266937968775598</v>
+        <v>0.7415294502916965</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
+          <t>OutDeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1902712956619744</v>
+        <v>0.7772401631483951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1554560065858978</v>
+        <v>0.2489316239638737</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,998 +689,1031 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.8417814867344535</v>
+        <v>0.3453225591032064</v>
       </c>
       <c r="C1" t="n">
-        <v>0.2636718498636896</v>
+        <v>0.4769184970427237</v>
       </c>
       <c r="D1" t="n">
-        <v>0.3491375520941665</v>
+        <v>0.5885359321770665</v>
       </c>
       <c r="E1" t="n">
-        <v>0.001831926995127487</v>
+        <v>0.05719665693973385</v>
       </c>
       <c r="F1" t="n">
-        <v>0.02952172182078986</v>
+        <v>0.3554578272353635</v>
       </c>
       <c r="G1" t="n">
-        <v>0.007424627989436793</v>
+        <v>0.008697171658797508</v>
       </c>
       <c r="H1" t="n">
-        <v>0.2057611122359624</v>
+        <v>0.8979779732219562</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5190950201301034</v>
+        <v>0.5247313010925606</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6319878365243203</v>
+        <v>0.4556506642802596</v>
       </c>
       <c r="K1" t="n">
-        <v>0.7990613037635395</v>
+        <v>0.7467867035722033</v>
       </c>
       <c r="L1" t="n">
-        <v>0.6560588825519099</v>
+        <v>0.4180288551396678</v>
       </c>
       <c r="M1" t="n">
-        <v>0.1177474474192865</v>
+        <v>0.1138287023618562</v>
       </c>
       <c r="N1" t="n">
-        <v>0.2879516253139552</v>
+        <v>0.005251602955196127</v>
       </c>
       <c r="O1" t="n">
-        <v>0.6800990368288748</v>
+        <v>0.1326444461424313</v>
       </c>
       <c r="P1" t="n">
-        <v>0.004373669065591547</v>
+        <v>7.545870525363093e-05</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.5513279371292847</v>
+        <v>0.1786757775366458</v>
       </c>
       <c r="R1" t="n">
-        <v>0.0001786393149171622</v>
+        <v>7.763078758136046e-08</v>
       </c>
       <c r="S1" t="n">
-        <v>0.007915089335447328</v>
+        <v>0.6760420036257873</v>
       </c>
       <c r="T1" t="n">
-        <v>0.2875377601078297</v>
+        <v>0.07061695485049262</v>
       </c>
       <c r="U1" t="n">
-        <v>0.007031975460814187</v>
+        <v>0.0002985898679668298</v>
       </c>
       <c r="V1" t="n">
-        <v>0.4518882736233086</v>
+        <v>0.285913068779434</v>
       </c>
       <c r="W1" t="n">
-        <v>0.2778554665154113</v>
+        <v>0.1135421875108657</v>
       </c>
       <c r="X1" t="n">
-        <v>0.3721994913173464</v>
+        <v>0.1887279861884955</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.5799295172998674</v>
+        <v>0.9207904804944991</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.003294461839891532</v>
+        <v>0.004678977644543249</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.03885444649476135</v>
+        <v>0.09702400151404798</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.411155395245513</v>
+        <v>0.4048080317409195</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.781898728334977</v>
+        <v>0.4573220343823444</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.5129395155487415</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02375043742981642</v>
+        <v>0.4621986438146836</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1073572271793775</v>
+        <v>0.659240209568646</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2067849033912181</v>
+        <v>0.6935171864656355</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04766549373658659</v>
+        <v>0.9873908063369523</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001630250093149353</v>
+        <v>0.3789014969753116</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04553711226093</v>
+        <v>0.145035207871785</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1859859845544137</v>
+        <v>0.001611717284525267</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5964220914091923</v>
+        <v>0.2628267861719159</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8387939777824247</v>
+        <v>0.8085016772695405</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5095237825370218</v>
+        <v>0.3052987485872847</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5732824205411795</v>
+        <v>0.8323886201457759</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04331917708023224</v>
+        <v>0.2828944320246886</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9224982834245117</v>
+        <v>0.8635352580058836</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1051921292276209</v>
+        <v>0.1428662287742584</v>
       </c>
       <c r="P2" t="n">
-        <v>0.364261112236452</v>
+        <v>0.3656700600566107</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3434480757416509</v>
+        <v>0.3703797351207598</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8910559364585109</v>
+        <v>0.5260057829194889</v>
       </c>
       <c r="S2" t="n">
-        <v>0.008314958177435924</v>
+        <v>0.07473725955842644</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7470198061058215</v>
+        <v>0.1377549861730321</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9185833435084145</v>
+        <v>0.6670819350978059</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4310305040180091</v>
+        <v>0.8336376101058887</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7507388546658571</v>
+        <v>0.5315737914380207</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1615298508565937</v>
+        <v>0.08149986960820405</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3297530858597817</v>
+        <v>0.09976442217908153</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5198003528585293</v>
+        <v>0.09439598078347965</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1834255894586184</v>
+        <v>0.4223664500112835</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7896326947511115</v>
+        <v>0.0007823422723702651</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4948963109313599</v>
+        <v>0.6206298815977549</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.05890533387191522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5244635428057169</v>
+        <v>0.3826915378005611</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4833578709185374</v>
+        <v>0.2623320064410679</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4945863166239712</v>
+        <v>0.3082335022880889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7392169627058541</v>
+        <v>0.518920317362404</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7700725278544536</v>
+        <v>0.5519679328709539</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5417686205049554</v>
+        <v>0.5608994169763263</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9592899506347395</v>
+        <v>0.3850294616041474</v>
       </c>
       <c r="I3" t="n">
-        <v>0.191849511418606</v>
+        <v>0.3861519543747925</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05999013637536151</v>
+        <v>0.1755048123944752</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5318941978196434</v>
+        <v>0.2420440162236446</v>
       </c>
       <c r="L3" t="n">
-        <v>0.518242482596889</v>
+        <v>0.6124123000739401</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7368435568381893</v>
+        <v>0.01204270613352378</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6819007309223544</v>
+        <v>0.04676895021921357</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07651620282399395</v>
+        <v>0.9736698482453987</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1742364844340519</v>
+        <v>0.3416668050567083</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5439639760151462</v>
+        <v>0.386401313354519</v>
       </c>
       <c r="R3" t="n">
-        <v>0.349926252240898</v>
+        <v>0.883945065707926</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9879805070976357</v>
+        <v>0.8752203944378486</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04553170347304551</v>
+        <v>0.07525322820963777</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1359252229724418</v>
+        <v>0.5468245457408505</v>
       </c>
       <c r="V3" t="n">
-        <v>0.518441377761188</v>
+        <v>0.4908452513078001</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2512783321988005</v>
+        <v>0.5326033199514033</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9232696201353121</v>
+        <v>0.464917359970742</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6002129334558679</v>
+        <v>0.4979339052013279</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1117077736217078</v>
+        <v>0.3219225547969327</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9742033261554033</v>
+        <v>0.480000532418642</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02735232514285631</v>
+        <v>8.940145406718197e-21</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6161221705900475</v>
+        <v>1.086673215057164e-13</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.1209198818121082</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3999929792668998</v>
+        <v>0.08819217556465778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.594849250364478</v>
+        <v>0.5559920531423714</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5009214037373749</v>
+        <v>0.2861190155136155</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5008845239930885</v>
+        <v>0.8192558361520356</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4348552374383534</v>
+        <v>0.4916355888641161</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2743475713508248</v>
+        <v>0.3005679688660983</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1533272998407588</v>
+        <v>0.6090947437661332</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04739015087126344</v>
+        <v>0.7151896433559355</v>
       </c>
       <c r="J4" t="n">
-        <v>0.610144131673711</v>
+        <v>0.7358780740664048</v>
       </c>
       <c r="K4" t="n">
-        <v>0.357596775561445</v>
+        <v>0.7078300321939578</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8507971503080614</v>
+        <v>0.9998053862510251</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3746069718000563</v>
+        <v>0.8043845962834535</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4831986327882173</v>
+        <v>0.03200353997164793</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2714807508982401</v>
+        <v>0.2380040643259701</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7634342598972141</v>
+        <v>0.1343019617429104</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3259106393935226</v>
+        <v>0.925838689557688</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9511492261852659</v>
+        <v>0.3180975303345709</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4295554436179836</v>
+        <v>0.1869894602999593</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5093743523061239</v>
+        <v>0.834141404783164</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4459791346892137</v>
+        <v>0.7964801649823617</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001850378147133524</v>
+        <v>0.7415264864937103</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3099528511930418</v>
+        <v>8.500023489682533e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04465472538891219</v>
+        <v>0.3049534006083039</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4644671381394628</v>
+        <v>0.3793476821356635</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.382694180519352</v>
+        <v>0.03269884449214878</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8667734416878293</v>
+        <v>0.6931082216723602</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.5480697437518636</v>
+        <v>6.775055804526258e-06</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1008714083551707</v>
+        <v>5.87956741879312e-72</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.7601810279743619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9676879151660921</v>
+        <v>0.1717144347993991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8214966880898039</v>
+        <v>0.5598248539860323</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8869826472756899</v>
+        <v>0.3704830972211333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.567881840725148</v>
+        <v>0.9192231276448619</v>
       </c>
       <c r="F5" t="n">
-        <v>0.838718895940701</v>
+        <v>0.9479812650329036</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5604100332889395</v>
+        <v>0.720904794441289</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6174231498601989</v>
+        <v>0.1755068029293763</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4156261258701078</v>
+        <v>0.3455601324850698</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0959151528938158</v>
+        <v>0.01651393069187244</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0009594747775278363</v>
+        <v>0.2858242920945619</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7593440963481126</v>
+        <v>0.01374013118510141</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2521246494871989</v>
+        <v>0.2977940189668127</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7793917313828795</v>
+        <v>0.7328530455767823</v>
       </c>
       <c r="O5" t="n">
-        <v>0.757536118087588</v>
+        <v>0.8067199339066021</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4694866880546643</v>
+        <v>0.5469119128670585</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7736265417726385</v>
+        <v>0.8703098269994356</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6274156757837321</v>
+        <v>0.3423102613237815</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7816725545714865</v>
+        <v>0.4858828130595879</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7770169236363876</v>
+        <v>0.08720354581430884</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04070206783086384</v>
+        <v>0.3048694482095105</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5010823966092088</v>
+        <v>0.7101571422504043</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3909928104655356</v>
+        <v>0.957854410442706</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6392350295824945</v>
+        <v>0.4432497519000282</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.9112744399661251</v>
+        <v>0.6506607732273195</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5172361175489126</v>
+        <v>0.03753261676410441</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4445103702346196</v>
+        <v>0.6233059233435911</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.08301711590572317</v>
+        <v>9.655606067514953e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.03572016107851646</v>
+        <v>0.1809723540393573</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.8014778010422978</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3147774005698654</v>
+        <v>0.8012921485595855</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4298674233776982</v>
+        <v>0.2105351635082013</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3161471218721411</v>
+        <v>0.2022395470514276</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9802431286894159</v>
+        <v>0.2754164861248479</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7949481060874652</v>
+        <v>0.7648429276378909</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9492069433492273</v>
+        <v>0.2943296886709413</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01099640448251929</v>
+        <v>0.9069551421424398</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1514749943147893</v>
+        <v>0.4104365754914453</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6903284920481878</v>
+        <v>0.1609198201624075</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0880356046506368</v>
+        <v>0.2234908601107427</v>
       </c>
       <c r="L6" t="n">
-        <v>0.344069385570115</v>
+        <v>0.7082193117213444</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4102139721776157</v>
+        <v>0.7462666171246628</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02590616505850565</v>
+        <v>0.09151325569103577</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7750633966047875</v>
+        <v>0.001499557987301014</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01874569565972909</v>
+        <v>0.3921321033147084</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4656361669205806</v>
+        <v>0.6026277175346539</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5689375195707604</v>
+        <v>0.08684083252966536</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7105582192675006</v>
+        <v>0.3307767759674699</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5306707964129873</v>
+        <v>0.5764286398066643</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4986525375516356</v>
+        <v>0.09955322197548948</v>
       </c>
       <c r="V6" t="n">
-        <v>0.10075873057622</v>
+        <v>0.8193407136721257</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08001220489750779</v>
+        <v>0.899266541105282</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7996792698424606</v>
+        <v>0.9334308554030533</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7602352039454945</v>
+        <v>0.8256979763361566</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.769924441704279</v>
+        <v>0.1341066895997916</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2925175752066049</v>
+        <v>0.04416042817681056</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.8650224610367548</v>
+        <v>1.043484047892377e-08</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.4291683765846641</v>
+        <v>1.467626491969286e-11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.3017216270949778</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2920738398963575</v>
+        <v>0.3499806365534126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3821186781827148</v>
+        <v>0.812012418192575</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2961824452321481</v>
+        <v>0.7512610845546748</v>
       </c>
       <c r="E7" t="n">
-        <v>0.825012803837568</v>
+        <v>0.6730221961397839</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7999982958418128</v>
+        <v>0.8207519628603337</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5507760028074359</v>
+        <v>0.1443013596364536</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005273481513413752</v>
+        <v>0.2259768653205903</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02375509866322267</v>
+        <v>0.5628963125129953</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8475769778896239</v>
+        <v>0.8568504647113053</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3305100402426251</v>
+        <v>0.8880682819482866</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3105806739544024</v>
+        <v>0.7888359943679206</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1525650036097164</v>
+        <v>0.6759752966387632</v>
       </c>
       <c r="N7" t="n">
-        <v>0.569133100286479</v>
+        <v>0.07221663189387137</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7342952495851673</v>
+        <v>0.06604590957384113</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2173008249145977</v>
+        <v>0.6755525536254218</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5471365870721566</v>
+        <v>0.4196488004828974</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9507628517222423</v>
+        <v>0.1073186237273558</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9367396222074453</v>
+        <v>0.1978187960291865</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1327674316456441</v>
+        <v>0.3956018932906783</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3787835422891292</v>
+        <v>0.3626801617572745</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2406395760716572</v>
+        <v>0.6551681221715535</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2862038385418418</v>
+        <v>0.8789449218694814</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7824933722943119</v>
+        <v>0.6184375745381638</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4857611711927217</v>
+        <v>0.6460294348107135</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2689025544097178</v>
+        <v>0.005078748675022629</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.8155493050479693</v>
+        <v>0.2646768132302947</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.9183170976521651</v>
+        <v>1.757894937209405e-08</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6554750885270595</v>
+        <v>1.320351234845503e-06</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.1441737534085736</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9443383482854528</v>
+        <v>0.4108443401785097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5858933505034312</v>
+        <v>0.7809128771075595</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3662591951160681</v>
+        <v>0.6561623548179951</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9311913975099502</v>
+        <v>0.6778380950880042</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6944701950876915</v>
+        <v>0.453081346070272</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7645170108245611</v>
+        <v>0.838759514015363</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4109860270972312</v>
+        <v>0.581096360177596</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08667143397337776</v>
+        <v>0.7222601518516061</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4303273316124967</v>
+        <v>0.09523353910384029</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06887451871575094</v>
+        <v>0.80430636756558</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4621730912795143</v>
+        <v>0.789995456026612</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1753037957167058</v>
+        <v>0.4747895358497193</v>
       </c>
       <c r="N8" t="n">
-        <v>0.828584100047533</v>
+        <v>0.09928515891087301</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5648453383693629</v>
+        <v>0.02713640161951018</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2276362937076848</v>
+        <v>0.7200046238451665</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02050809752176837</v>
+        <v>0.01063683491469571</v>
       </c>
       <c r="R8" t="n">
-        <v>0.369542789712032</v>
+        <v>0.1250646551320441</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9317704094593284</v>
+        <v>0.347876112368069</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4225802506203179</v>
+        <v>0.1294451630131721</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4064499980917357</v>
+        <v>0.3867599548731451</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1040709305522606</v>
+        <v>0.6227808488765427</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8465158125267168</v>
+        <v>0.1748946341311294</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2806749194939931</v>
+        <v>0.9957395080082601</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.8551818883372253</v>
+        <v>0.7282439810910786</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.738988354175137</v>
+        <v>0.1336173398351177</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1988861789336508</v>
+        <v>0.08801738596310298</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.7193711730469352</v>
+        <v>3.330157462800386e-07</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.4656816127412253</v>
+        <v>0.5009190543867861</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.5041565843744081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2949644561063918</v>
+        <v>0.5313045714230722</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9337071674032049</v>
+        <v>0.4062907811069032</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8599402608134644</v>
+        <v>0.3105474100195874</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6802083169797002</v>
+        <v>0.2358305080711429</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5914073786478056</v>
+        <v>0.793641693906628</v>
       </c>
       <c r="G9" t="n">
-        <v>0.490312549553987</v>
+        <v>0.138152575903449</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00159762931370493</v>
+        <v>0.3350788909689879</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02975452795577127</v>
+        <v>0.7881141683120586</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6446077615759469</v>
+        <v>0.6249207880313077</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1742351287833007</v>
+        <v>0.270733734734854</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1765913661515501</v>
+        <v>0.6943384066690244</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3761387669549118</v>
+        <v>0.9461497936979693</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1402107011382062</v>
+        <v>0.08309376796766403</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4979578834234358</v>
+        <v>0.01746530193194068</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1228597871011351</v>
+        <v>0.5612012880687745</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8522735923876044</v>
+        <v>0.7560673224350793</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4117912722030201</v>
+        <v>0.1472930517313237</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7649089314321287</v>
+        <v>0.1561926367840621</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0769151141107707</v>
+        <v>0.4452840810108318</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2999315100544498</v>
+        <v>0.2855223607641528</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1749236176708919</v>
+        <v>0.4471148900120298</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1565661239306563</v>
+        <v>0.5527950094567649</v>
       </c>
       <c r="X9" t="n">
-        <v>0.6742848174792486</v>
+        <v>0.6080012432683596</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.577789290742594</v>
+        <v>0.6624593225652056</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6368895265167664</v>
+        <v>0.07576059571746975</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.8131471594033337</v>
+        <v>0.18421963259142</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.8044233213985315</v>
+        <v>8.456122686816655e-07</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1771085863011296</v>
+        <v>1.382234064552799e-09</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.1872250389785442</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
+          <t>OutDeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3094872731782408</v>
+        <v>0.5109679341761201</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2520074025753117</v>
+        <v>0.5097383333604346</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1921585863944089</v>
+        <v>0.4542089533359458</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6463965629433087</v>
+        <v>0.5064431738824555</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7491882889511581</v>
+        <v>0.6404805860977896</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9874266468658348</v>
+        <v>0.1640354416301944</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006616441238172713</v>
+        <v>0.2923519649402742</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05501191355262326</v>
+        <v>0.7974054577939003</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7339787541733198</v>
+        <v>0.5245543505300501</v>
       </c>
       <c r="K10" t="n">
-        <v>0.22960593280499</v>
+        <v>0.7175999108193681</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2891170290480308</v>
+        <v>0.9076258844966294</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2894522194748244</v>
+        <v>0.6264446170430613</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2692914885135147</v>
+        <v>0.0660866172445911</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8648820522607668</v>
+        <v>0.0225410477181911</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0518915415073987</v>
+        <v>0.4853937602773013</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4618071378682447</v>
+        <v>0.4824835263869158</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8206283842242992</v>
+        <v>0.06595346612673328</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5574622262168094</v>
+        <v>0.2208032343566827</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3199237717568565</v>
+        <v>0.4169669725522683</v>
       </c>
       <c r="U10" t="n">
-        <v>0.4363721211989342</v>
+        <v>0.1937185136142919</v>
       </c>
       <c r="V10" t="n">
-        <v>0.07450600023249124</v>
+        <v>0.7789384630905081</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1065009152308794</v>
+        <v>0.9659470983530244</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9516500165764568</v>
+        <v>0.6729124819559584</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5516217434159634</v>
+        <v>0.7362573980032031</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5899499432740849</v>
+        <v>0.01587914306795081</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7055047782757694</v>
+        <v>0.09231230483432042</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.4817109205573816</v>
+        <v>4.360023492404507e-09</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6565520956829426</v>
+        <v>2.375011066748857e-09</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.1725523806655892</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.67541719340247</v>
+        <v>0.2834711344987654</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4142713070738341</v>
+        <v>0.0584218437406451</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3497490153604988</v>
+        <v>0.2139088873037175</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5697041577721571</v>
+        <v>0.4662707961653342</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2098522125000905</v>
+        <v>0.1916051891340759</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9522892936062348</v>
+        <v>0.2948313847455645</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5211712382013325</v>
+        <v>0.5318451579701762</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8733601830190068</v>
+        <v>0.4585021984655258</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0232981045980475</v>
+        <v>0.7090718178182777</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3309088387703384</v>
+        <v>0.004129310139171982</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5176291460229245</v>
+        <v>0.07292380758530818</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2891307398792154</v>
+        <v>0.1635625119476668</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04547812825266392</v>
+        <v>0.1469659180518643</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02513707608558432</v>
+        <v>0.2311294662266287</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7012224860488153</v>
+        <v>0.875503578246148</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.50237705934739</v>
+        <v>0.4891976973132139</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6925659826269743</v>
+        <v>0.8820749063656508</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7272434963618641</v>
+        <v>0.871215752281697</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4923074357986721</v>
+        <v>0.9960260365738505</v>
       </c>
       <c r="U11" t="n">
-        <v>0.182967218765852</v>
+        <v>0.1260550011328726</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5710568937525491</v>
+        <v>0.755904719899004</v>
       </c>
       <c r="W11" t="n">
-        <v>0.8941637735836978</v>
+        <v>0.7856895361670597</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7623746243058347</v>
+        <v>0.6464895972583977</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5135954764350976</v>
+        <v>0.7045032883327984</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.1848139241324099</v>
+        <v>0.5468699763527667</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.9648845223308125</v>
+        <v>0.3265615861276173</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.6608918047964734</v>
+        <v>0.3996426637955943</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.76656868169978</v>
+        <v>0.1508235780084675</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.9220651405294855</v>
       </c>
     </row>
   </sheetData>
@@ -1709,97 +1742,107 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.2435296378992828</v>
+        <v>0.3160079764148219</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4313945633671408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1641786527814016</v>
+        <v>0.8525022872986581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
+          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1542563859870857</v>
+        <v>0.9760724884524125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.188347773887227</v>
+        <v>0.4219011615417401</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indeg_RedCont_DiqPriqDiqCint</t>
+          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2234298584390777</v>
+        <v>0.8101734623123679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1006958590885076</v>
+        <v>0.7096451735361415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2589627628479456</v>
+        <v>0.6035124763514501</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1266937968775598</v>
+        <v>0.7415294502916965</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Indeg_ContRep2_DiqPrqCin</t>
+          <t>OutDeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1902712956619744</v>
+        <v>0.7772401631483951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
+          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1554560065858978</v>
+        <v>0.2489316239638737</v>
       </c>
     </row>
   </sheetData>

--- a/Results/resultados_regresiones_ols.xlsx
+++ b/Results/resultados_regresiones_ols.xlsx
@@ -437,101 +437,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5557770026305787</v>
+        <v>0.2809174973080895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8847674119520766</v>
+        <v>0.3591406323555603</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9813066316034472</v>
+        <v>0.477763081453271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5483602824544844</v>
+        <v>0.3358599577303595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8516980174315374</v>
+        <v>0.4861135238777242</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7731602918251106</v>
+        <v>0.4460711884898535</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6902441221495704</v>
+        <v>0.4508995066245576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7980698830403878</v>
+        <v>0.4800866066254985</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OutDeg_ContRep2_DiqPrqCin</t>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8259688774596836</v>
+        <v>0.5179617534954701</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4132278312217763</v>
+        <v>0.2677900404056545</v>
       </c>
     </row>
   </sheetData>
@@ -566,101 +566,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4313945633671408</v>
+        <v>0.0795743965543545</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8525022872986581</v>
+        <v>0.1797000094151171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9760724884524125</v>
+        <v>0.3315367442601868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4219011615417401</v>
+        <v>0.1499007458948601</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8101734623123679</v>
+        <v>0.342225310563487</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7096451735361415</v>
+        <v>0.2909711212670124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6035124763514501</v>
+        <v>0.2971513684794337</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7415294502916965</v>
+        <v>0.3345108564806381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OutDeg_ContRep2_DiqPrqCin</t>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7772401631483951</v>
+        <v>0.3829910444742017</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2489316239638737</v>
+        <v>0.0627712517192377</v>
       </c>
     </row>
   </sheetData>
@@ -779,941 +779,941 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4621986438146836</v>
+        <v>0.1759893377717568</v>
       </c>
       <c r="C2" t="n">
-        <v>0.659240209568646</v>
+        <v>0.02213617276423761</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6935171864656355</v>
+        <v>0.06686962491639591</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9873908063369523</v>
+        <v>0.887488712500867</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3789014969753116</v>
+        <v>0.1019945716386967</v>
       </c>
       <c r="G2" t="n">
-        <v>0.145035207871785</v>
+        <v>0.04128107590297232</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001611717284525267</v>
+        <v>0.7741422437822147</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2628267861719159</v>
+        <v>0.6063294312522776</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8085016772695405</v>
+        <v>0.6775279964001517</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3052987485872847</v>
+        <v>0.4499057348060918</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8323886201457759</v>
+        <v>0.4387679565055196</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2828944320246886</v>
+        <v>0.06004157534470333</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8635352580058836</v>
+        <v>0.6744369768569023</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1428662287742584</v>
+        <v>0.9371535108365242</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3656700600566107</v>
+        <v>0.9558895501913234</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3703797351207598</v>
+        <v>0.5045229453802627</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5260057829194889</v>
+        <v>0.64078572504793</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07473725955842644</v>
+        <v>0.9229487002741654</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1377549861730321</v>
+        <v>0.7824718042198826</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6670819350978059</v>
+        <v>0.74278481395791</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8336376101058887</v>
+        <v>0.4295490906116595</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5315737914380207</v>
+        <v>0.3821038225020731</v>
       </c>
       <c r="X2" t="n">
-        <v>0.08149986960820405</v>
+        <v>0.3701413666199607</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.09976442217908153</v>
+        <v>0.6031135112686283</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.09439598078347965</v>
+        <v>0.6865913237358761</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4223664500112835</v>
+        <v>0.4294737624724881</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0007823422723702651</v>
+        <v>0.9161328314554195</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6206298815977549</v>
+        <v>0.368147948996003</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.05890533387191522</v>
+        <v>0.4313659681005068</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3826915378005611</v>
+        <v>0.9607738728478112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2623320064410679</v>
+        <v>0.06194604780141345</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3082335022880889</v>
+        <v>0.06651463624533963</v>
       </c>
       <c r="E3" t="n">
-        <v>0.518920317362404</v>
+        <v>0.4896315661116124</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5519679328709539</v>
+        <v>0.5911639285697348</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5608994169763263</v>
+        <v>0.6915496703605043</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3850294616041474</v>
+        <v>0.4042373882992648</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3861519543747925</v>
+        <v>0.3675485482733503</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1755048123944752</v>
+        <v>0.7368409522134447</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2420440162236446</v>
+        <v>0.09149824894071062</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6124123000739401</v>
+        <v>0.4625254681645176</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01204270613352378</v>
+        <v>0.6567300166278311</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04676895021921357</v>
+        <v>0.8328407011972733</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9736698482453987</v>
+        <v>0.1780841774479616</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3416668050567083</v>
+        <v>0.4892511867384552</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.386401313354519</v>
+        <v>0.5788121681609619</v>
       </c>
       <c r="R3" t="n">
-        <v>0.883945065707926</v>
+        <v>0.4954121762631412</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8752203944378486</v>
+        <v>0.2060797439612242</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07525322820963777</v>
+        <v>0.01886641415117307</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5468245457408505</v>
+        <v>0.2773959855521944</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4908452513078001</v>
+        <v>0.4131920458843173</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5326033199514033</v>
+        <v>0.3296988184774222</v>
       </c>
       <c r="X3" t="n">
-        <v>0.464917359970742</v>
+        <v>0.5536920457211318</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4979339052013279</v>
+        <v>0.7783881464661462</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3219225547969327</v>
+        <v>0.03055226066421775</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.480000532418642</v>
+        <v>0.9542856629133272</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.940145406718197e-21</v>
+        <v>0.1020288511008911</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.086673215057164e-13</v>
+        <v>0.5648939458938979</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1209198818121082</v>
+        <v>0.03108080651113966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08819217556465778</v>
+        <v>0.4705374894481844</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5559920531423714</v>
+        <v>0.006419066133136884</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2861190155136155</v>
+        <v>0.00495344707601938</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8192558361520356</v>
+        <v>0.06193548834243712</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4916355888641161</v>
+        <v>0.09696368660067588</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3005679688660983</v>
+        <v>0.2691124367595044</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6090947437661332</v>
+        <v>0.2563471576806148</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7151896433559355</v>
+        <v>0.02273117052374208</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7358780740664048</v>
+        <v>0.03712599467179705</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7078300321939578</v>
+        <v>0.1378440755130802</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9998053862510251</v>
+        <v>0.6512613591599113</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8043845962834535</v>
+        <v>0.1626728715845844</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03200353997164793</v>
+        <v>0.9175891225589942</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2380040643259701</v>
+        <v>0.01111668959626613</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1343019617429104</v>
+        <v>0.7123120838360004</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.925838689557688</v>
+        <v>0.3543270548326203</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3180975303345709</v>
+        <v>0.7777843145484923</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1869894602999593</v>
+        <v>0.09433163421214995</v>
       </c>
       <c r="T4" t="n">
-        <v>0.834141404783164</v>
+        <v>0.4653689717637937</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7964801649823617</v>
+        <v>0.4090743073022777</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7415264864937103</v>
+        <v>0.0001638016216021482</v>
       </c>
       <c r="W4" t="n">
-        <v>8.500023489682533e-05</v>
+        <v>0.3435000050502738</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3049534006083039</v>
+        <v>0.01022712205141286</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3793476821356635</v>
+        <v>0.4577736449540722</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03269884449214878</v>
+        <v>0.002205346592854998</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6931082216723602</v>
+        <v>0.2490239262463172</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.775055804526258e-06</v>
+        <v>0.8918641392934467</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.87956741879312e-72</v>
+        <v>0.2458133560289951</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7601810279743619</v>
+        <v>2.596502937630348e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1717144347993991</v>
+        <v>0.7998107282690421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5598248539860323</v>
+        <v>0.4526378165084493</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3704830972211333</v>
+        <v>0.2679433101660858</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9192231276448619</v>
+        <v>0.9585151432967683</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9479812650329036</v>
+        <v>0.2692972465507874</v>
       </c>
       <c r="G5" t="n">
-        <v>0.720904794441289</v>
+        <v>0.4836428184019006</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1755068029293763</v>
+        <v>0.9694106823335905</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3455601324850698</v>
+        <v>0.8535413953621702</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01651393069187244</v>
+        <v>0.1115609494397774</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2858242920945619</v>
+        <v>0.4250575656135547</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01374013118510141</v>
+        <v>0.8836627984479447</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2977940189668127</v>
+        <v>0.2379164215835579</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7328530455767823</v>
+        <v>0.654441481240887</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8067199339066021</v>
+        <v>0.339020829688936</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5469119128670585</v>
+        <v>0.9086900041579994</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8703098269994356</v>
+        <v>0.6593012661386806</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3423102613237815</v>
+        <v>0.3334828207678716</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4858828130595879</v>
+        <v>0.6224950595370256</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08720354581430884</v>
+        <v>0.4638265661200682</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3048694482095105</v>
+        <v>0.1063532966939496</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7101571422504043</v>
+        <v>0.7909755516381001</v>
       </c>
       <c r="W5" t="n">
-        <v>0.957854410442706</v>
+        <v>0.8531964594547685</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4432497519000282</v>
+        <v>0.7559962948993288</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6506607732273195</v>
+        <v>0.5989057232722046</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.03753261676410441</v>
+        <v>0.127023786392425</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.6233059233435911</v>
+        <v>0.4311310879361941</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.655606067514953e-05</v>
+        <v>0.9162081189976431</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1809723540393573</v>
+        <v>0.666846758524579</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.8014778010422978</v>
+        <v>0.1944342552404853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8012921485595855</v>
+        <v>0.7877128059907472</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2105351635082013</v>
+        <v>0.01140991675194914</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2022395470514276</v>
+        <v>0.01086033822002328</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2754164861248479</v>
+        <v>0.5867671164012714</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7648429276378909</v>
+        <v>0.1739960537364227</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2943296886709413</v>
+        <v>0.3054491091286782</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9069551421424398</v>
+        <v>0.3865272719442505</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4104365754914453</v>
+        <v>0.01528027884822751</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1609198201624075</v>
+        <v>0.5213228952419731</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2234908601107427</v>
+        <v>0.0006616143761487485</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7082193117213444</v>
+        <v>0.2761511957482083</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7462666171246628</v>
+        <v>0.9020925778113473</v>
       </c>
       <c r="N6" t="n">
-        <v>0.09151325569103577</v>
+        <v>0.2190262848600442</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001499557987301014</v>
+        <v>0.4319312841147074</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3921321033147084</v>
+        <v>0.2222529469519175</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6026277175346539</v>
+        <v>0.5994075925073322</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08684083252966536</v>
+        <v>0.8109871992739763</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3307767759674699</v>
+        <v>0.2465056286585052</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5764286398066643</v>
+        <v>0.6675123000405201</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09955322197548948</v>
+        <v>0.4200038691454898</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8193407136721257</v>
+        <v>0.1284363348465829</v>
       </c>
       <c r="W6" t="n">
-        <v>0.899266541105282</v>
+        <v>0.03111022423671586</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9334308554030533</v>
+        <v>0.4556078940051462</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8256979763361566</v>
+        <v>0.9608319341861387</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1341066895997916</v>
+        <v>0.523416956702379</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.04416042817681056</v>
+        <v>0.2477696370370595</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.043484047892377e-08</v>
+        <v>0.1850623460394183</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.467626491969286e-11</v>
+        <v>0.6938718027369231</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.3017216270949778</v>
+        <v>0.3047659047363371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3499806365534126</v>
+        <v>0.5996827730160564</v>
       </c>
       <c r="C7" t="n">
-        <v>0.812012418192575</v>
+        <v>0.1383070855907954</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7512610845546748</v>
+        <v>0.1180618194434507</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6730221961397839</v>
+        <v>0.1195890505401752</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8207519628603337</v>
+        <v>0.7627286893848642</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1443013596364536</v>
+        <v>0.3856335557980966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2259768653205903</v>
+        <v>0.1262876924657624</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5628963125129953</v>
+        <v>0.005861017067606352</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8568504647113053</v>
+        <v>0.6105719505395251</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8880682819482866</v>
+        <v>1.637973157803438e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7888359943679206</v>
+        <v>0.3315414555993608</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6759752966387632</v>
+        <v>0.3426948280151199</v>
       </c>
       <c r="N7" t="n">
-        <v>0.07221663189387137</v>
+        <v>0.03620703528524186</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06604590957384113</v>
+        <v>0.3250678940667764</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6755525536254218</v>
+        <v>0.6317673420947395</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4196488004828974</v>
+        <v>0.8061013924109965</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1073186237273558</v>
+        <v>0.2727272792851947</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1978187960291865</v>
+        <v>0.1356487719086949</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3956018932906783</v>
+        <v>0.06759489275760881</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3626801617572745</v>
+        <v>0.4382008478975131</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6551681221715535</v>
+        <v>0.3151581217895066</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8789449218694814</v>
+        <v>0.1979847830124732</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6184375745381638</v>
+        <v>0.6041266368849877</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6460294348107135</v>
+        <v>0.923979119607234</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.005078748675022629</v>
+        <v>0.2032246758727724</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2646768132302947</v>
+        <v>0.9702908160338906</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.757894937209405e-08</v>
+        <v>0.6613453740297213</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.320351234845503e-06</v>
+        <v>0.503987302517052</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.1441737534085736</v>
+        <v>0.5875705769755861</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4108443401785097</v>
+        <v>0.7128877617489988</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7809128771075595</v>
+        <v>0.1922104646052256</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6561623548179951</v>
+        <v>0.08306567398085085</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6778380950880042</v>
+        <v>0.9818474414571134</v>
       </c>
       <c r="F8" t="n">
-        <v>0.453081346070272</v>
+        <v>0.5758943635116036</v>
       </c>
       <c r="G8" t="n">
-        <v>0.838759514015363</v>
+        <v>0.6576846192298273</v>
       </c>
       <c r="H8" t="n">
-        <v>0.581096360177596</v>
+        <v>0.1959673992597122</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7222601518516061</v>
+        <v>0.1819000468818613</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09523353910384029</v>
+        <v>0.4706941537707431</v>
       </c>
       <c r="K8" t="n">
-        <v>0.80430636756558</v>
+        <v>0.450836336905161</v>
       </c>
       <c r="L8" t="n">
-        <v>0.789995456026612</v>
+        <v>0.1451807002420472</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4747895358497193</v>
+        <v>0.4311733376244169</v>
       </c>
       <c r="N8" t="n">
-        <v>0.09928515891087301</v>
+        <v>0.9289558707968761</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02713640161951018</v>
+        <v>0.8111890017893738</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7200046238451665</v>
+        <v>0.6413548366041244</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01063683491469571</v>
+        <v>0.01980962776228608</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1250646551320441</v>
+        <v>0.669082034847247</v>
       </c>
       <c r="S8" t="n">
-        <v>0.347876112368069</v>
+        <v>0.6749972377390629</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1294451630131721</v>
+        <v>0.3105980246174371</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3867599548731451</v>
+        <v>0.877755933410891</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6227808488765427</v>
+        <v>0.08243543041001901</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1748946341311294</v>
+        <v>0.8586300002407752</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9957395080082601</v>
+        <v>0.1322426167940906</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7282439810910786</v>
+        <v>0.6830770816250482</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1336173398351177</v>
+        <v>0.1770903773890869</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.08801738596310298</v>
+        <v>0.3284326586745584</v>
       </c>
       <c r="AB8" t="n">
-        <v>3.330157462800386e-07</v>
+        <v>0.5010696060365296</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5009190543867861</v>
+        <v>0.08128644065461918</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.5041565843744081</v>
+        <v>0.020459345438865</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5313045714230722</v>
+        <v>0.9416915663847523</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4062907811069032</v>
+        <v>0.4987851317413241</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3105474100195874</v>
+        <v>0.5599825083783342</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2358305080711429</v>
+        <v>0.4353208457954404</v>
       </c>
       <c r="F9" t="n">
-        <v>0.793641693906628</v>
+        <v>0.6712138883919114</v>
       </c>
       <c r="G9" t="n">
-        <v>0.138152575903449</v>
+        <v>0.2396998222878718</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3350788909689879</v>
+        <v>0.142705995308723</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7881141683120586</v>
+        <v>0.0005793540857358694</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6249207880313077</v>
+        <v>0.5264969612312627</v>
       </c>
       <c r="K9" t="n">
-        <v>0.270733734734854</v>
+        <v>3.347788629538542e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6943384066690244</v>
+        <v>0.108418005740333</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9461497936979693</v>
+        <v>0.6626726327726173</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08309376796766403</v>
+        <v>0.2768196460110735</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01746530193194068</v>
+        <v>0.6702351166149</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5612012880687745</v>
+        <v>0.5985299358174057</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7560673224350793</v>
+        <v>0.9070963285908533</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1472930517313237</v>
+        <v>0.4386216309130339</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1561926367840621</v>
+        <v>0.2923430112454654</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4452840810108318</v>
+        <v>0.06792673766990007</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2855223607641528</v>
+        <v>0.3082963119195538</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4471148900120298</v>
+        <v>0.3341495919765533</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5527950094567649</v>
+        <v>0.1135662046070618</v>
       </c>
       <c r="X9" t="n">
-        <v>0.6080012432683596</v>
+        <v>0.9073851959647474</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6624593225652056</v>
+        <v>0.8718011132495289</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.07576059571746975</v>
+        <v>0.5961787390258145</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.18421963259142</v>
+        <v>0.9230618183703653</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.456122686816655e-07</v>
+        <v>0.6021437796434088</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.382234064552799e-09</v>
+        <v>0.352078268877375</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1872250389785442</v>
+        <v>0.5490713090089534</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OutDeg_ContRep2_DiqPrqCin</t>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5109679341761201</v>
+        <v>0.6477817762470457</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5097383333604346</v>
+        <v>0.01244951740255328</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4542089533359458</v>
+        <v>0.01137014394348155</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5064431738824555</v>
+        <v>0.1904808879143011</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6404805860977896</v>
+        <v>0.2587928069377727</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1640354416301944</v>
+        <v>0.3912603351995558</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2923519649402742</v>
+        <v>0.1285102480121487</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7974054577939003</v>
+        <v>0.00400697904152904</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5245543505300501</v>
+        <v>0.5640941786487939</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7175999108193681</v>
+        <v>2.471777981285023e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9076258844966294</v>
+        <v>0.273159156390403</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6264446170430613</v>
+        <v>0.7731999926429891</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0660866172445911</v>
+        <v>0.03534680993519337</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0225410477181911</v>
+        <v>0.2312466208419084</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4853937602773013</v>
+        <v>0.7869414249740017</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4824835263869158</v>
+        <v>0.7122150737737795</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06595346612673328</v>
+        <v>0.3138110569820992</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2208032343566827</v>
+        <v>0.1360010022806599</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4169669725522683</v>
+        <v>0.2261710455187869</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1937185136142919</v>
+        <v>0.4053692619937505</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7789384630905081</v>
+        <v>0.06675191425510951</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9659470983530244</v>
+        <v>0.04080642514956834</v>
       </c>
       <c r="X10" t="n">
-        <v>0.6729124819559584</v>
+        <v>0.4320261675356901</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7362573980032031</v>
+        <v>0.9661926630163189</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.01587914306795081</v>
+        <v>0.3982685586467339</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.09231230483432042</v>
+        <v>0.7953124985508315</v>
       </c>
       <c r="AB10" t="n">
-        <v>4.360023492404507e-09</v>
+        <v>0.8615206485882408</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.375011066748857e-09</v>
+        <v>0.5203952274036145</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.1725523806655892</v>
+        <v>0.7173997879001656</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2834711344987654</v>
+        <v>0.6489848418094237</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0584218437406451</v>
+        <v>0.241968853443192</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2139088873037175</v>
+        <v>0.2347809129770996</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4662707961653342</v>
+        <v>0.0881111509874028</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1916051891340759</v>
+        <v>0.9498455629447462</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2948313847455645</v>
+        <v>0.3453621166984274</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5318451579701762</v>
+        <v>0.3820209077375725</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4585021984655258</v>
+        <v>0.9980545787347079</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7090718178182777</v>
+        <v>0.5426368052975963</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004129310139171982</v>
+        <v>0.2775401547125111</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07292380758530818</v>
+        <v>0.906443050581527</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1635625119476668</v>
+        <v>0.6363487060487103</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1469659180518643</v>
+        <v>0.05454826326525705</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2311294662266287</v>
+        <v>0.7428975310952123</v>
       </c>
       <c r="P11" t="n">
-        <v>0.875503578246148</v>
+        <v>0.4130022130312165</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4891976973132139</v>
+        <v>0.5674594936991235</v>
       </c>
       <c r="R11" t="n">
-        <v>0.8820749063656508</v>
+        <v>0.6751811675836046</v>
       </c>
       <c r="S11" t="n">
-        <v>0.871215752281697</v>
+        <v>0.1952015821771256</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9960260365738505</v>
+        <v>0.8562737601298047</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1260550011328726</v>
+        <v>0.3637772309167192</v>
       </c>
       <c r="V11" t="n">
-        <v>0.755904719899004</v>
+        <v>0.5689625045447192</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7856895361670597</v>
+        <v>0.6312304584265237</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6464895972583977</v>
+        <v>0.839128135884209</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7045032883327984</v>
+        <v>0.7955817632847577</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.5468699763527667</v>
+        <v>0.09520991825407149</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.3265615861276173</v>
+        <v>0.7572304243567707</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.3996426637955943</v>
+        <v>0.8145680562290426</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1508235780084675</v>
+        <v>0.9878778208176846</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.9220651405294855</v>
+        <v>0.5067691241020147</v>
       </c>
     </row>
   </sheetData>
@@ -1727,7 +1727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1745,104 +1745,84 @@
         <v>0.3160079764148219</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.4313945633671408</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8525022872986581</v>
+        <v>0.1797000094151171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9760724884524125</v>
+        <v>0.3315367442601868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4219011615417401</v>
+        <v>0.1499007458948601</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8101734623123679</v>
+        <v>0.342225310563487</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7096451735361415</v>
+        <v>0.2909711212670124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6035124763514501</v>
+        <v>0.2971513684794337</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7415294502916965</v>
+        <v>0.3345108564806381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OutDeg_ContRep2_DiqPrqCin</t>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7772401631483951</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.2489316239638737</v>
+        <v>0.3829910444742017</v>
       </c>
     </row>
   </sheetData>

--- a/Results/resultados_regresiones_ols.xlsx
+++ b/Results/resultados_regresiones_ols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="R2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R2 Ajustado" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="P-Values" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Regresiones con R2 &gt; 0.1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R2 Ajustado" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P-Values" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regresiones con R2 &gt; 0.1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.4656312315740796</v>
+        <v>0.4656312315740795</v>
       </c>
     </row>
     <row r="2">
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2809174973080895</v>
+        <v>0.2809174973080896</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3591406323555603</v>
+        <v>0.3591406323555602</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.477763081453271</v>
+        <v>0.4777630814532708</v>
       </c>
     </row>
     <row r="5">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3358599577303595</v>
+        <v>0.3358599577303594</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4861135238777242</v>
+        <v>0.4861135238777241</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4460711884898535</v>
+        <v>0.4460711884898536</v>
       </c>
     </row>
     <row r="8">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4508995066245576</v>
+        <v>0.4508995066245575</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4800866066254985</v>
+        <v>0.4800866066254986</v>
       </c>
     </row>
     <row r="10">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2677900404056545</v>
+        <v>0.2677900404056546</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.3160079764148219</v>
+        <v>0.3160079764148217</v>
       </c>
     </row>
     <row r="2">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0795743965543545</v>
+        <v>0.07957439655435461</v>
       </c>
     </row>
     <row r="3">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1797000094151171</v>
+        <v>0.179700009415117</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3315367442601868</v>
+        <v>0.3315367442601866</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1499007458948601</v>
+        <v>0.14990074589486</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.342225310563487</v>
+        <v>0.3422253105634868</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2909711212670124</v>
+        <v>0.2909711212670126</v>
       </c>
     </row>
     <row r="8">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2971513684794337</v>
+        <v>0.2971513684794336</v>
       </c>
     </row>
     <row r="9">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3345108564806381</v>
+        <v>0.3345108564806383</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0627712517192377</v>
+        <v>0.06277125171923781</v>
       </c>
     </row>
   </sheetData>
@@ -689,91 +689,91 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.3453225591032064</v>
+        <v>0.3453225591034521</v>
       </c>
       <c r="C1" t="n">
-        <v>0.4769184970427237</v>
+        <v>0.4769184970425715</v>
       </c>
       <c r="D1" t="n">
-        <v>0.5885359321770665</v>
+        <v>0.5885359321770011</v>
       </c>
       <c r="E1" t="n">
-        <v>0.05719665693973385</v>
+        <v>0.05719665693972936</v>
       </c>
       <c r="F1" t="n">
-        <v>0.3554578272353635</v>
+        <v>0.3554578272351083</v>
       </c>
       <c r="G1" t="n">
-        <v>0.008697171658797508</v>
+        <v>0.008697171658800091</v>
       </c>
       <c r="H1" t="n">
-        <v>0.8979779732219562</v>
+        <v>0.8979779732217583</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5247313010925606</v>
+        <v>0.5247313010925478</v>
       </c>
       <c r="J1" t="n">
-        <v>0.4556506642802596</v>
+        <v>0.4556506642799167</v>
       </c>
       <c r="K1" t="n">
-        <v>0.7467867035722033</v>
+        <v>0.7467867035725603</v>
       </c>
       <c r="L1" t="n">
-        <v>0.4180288551396678</v>
+        <v>0.418028855139342</v>
       </c>
       <c r="M1" t="n">
-        <v>0.1138287023618562</v>
+        <v>0.1138287023616617</v>
       </c>
       <c r="N1" t="n">
-        <v>0.005251602955196127</v>
+        <v>0.005251602955195138</v>
       </c>
       <c r="O1" t="n">
-        <v>0.1326444461424313</v>
+        <v>0.1326444461424984</v>
       </c>
       <c r="P1" t="n">
-        <v>7.545870525363093e-05</v>
+        <v>7.545870525410851e-05</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.1786757775366458</v>
+        <v>0.1786757775366946</v>
       </c>
       <c r="R1" t="n">
-        <v>7.763078758136046e-08</v>
+        <v>7.763078758137669e-08</v>
       </c>
       <c r="S1" t="n">
-        <v>0.6760420036257873</v>
+        <v>0.6760420036257846</v>
       </c>
       <c r="T1" t="n">
-        <v>0.07061695485049262</v>
+        <v>0.07061695485049345</v>
       </c>
       <c r="U1" t="n">
-        <v>0.0002985898679668298</v>
+        <v>0.0002985898679668368</v>
       </c>
       <c r="V1" t="n">
-        <v>0.285913068779434</v>
+        <v>0.2859130687794336</v>
       </c>
       <c r="W1" t="n">
-        <v>0.1135421875108657</v>
+        <v>0.1135421875108644</v>
       </c>
       <c r="X1" t="n">
-        <v>0.1887279861884955</v>
+        <v>0.1887279861884935</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.9207904804944991</v>
+        <v>0.9207904804945005</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.004678977644543249</v>
+        <v>0.004678977644543268</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.09702400151404798</v>
+        <v>0.09702400151404632</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.4048080317409195</v>
+        <v>0.4048080317409185</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.4573220343823444</v>
+        <v>0.457322034382338</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5129395155487415</v>
+        <v>0.5129395155487378</v>
       </c>
     </row>
     <row r="2">
@@ -783,91 +783,91 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1759893377717568</v>
+        <v>0.1759893377712624</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02213617276423761</v>
+        <v>0.02213617276420905</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06686962491639591</v>
+        <v>0.06686962491637399</v>
       </c>
       <c r="E2" t="n">
-        <v>0.887488712500867</v>
+        <v>0.8874887125011435</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1019945716386967</v>
+        <v>0.10199457163838</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04128107590297232</v>
+        <v>0.04128107590299183</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7741422437822147</v>
+        <v>0.7741422437825961</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6063294312522776</v>
+        <v>0.6063294312526198</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6775279964001517</v>
+        <v>0.6775279964013292</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4499057348060918</v>
+        <v>0.4499057348071058</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4387679565055196</v>
+        <v>0.4387679565061924</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06004157534470333</v>
+        <v>0.06004157534421983</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6744369768569023</v>
+        <v>0.6744369768562208</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9371535108365242</v>
+        <v>0.9371535108374882</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9558895501913234</v>
+        <v>0.955889550193247</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5045229453802627</v>
+        <v>0.5045229453792475</v>
       </c>
       <c r="R2" t="n">
-        <v>0.64078572504793</v>
+        <v>0.6407857250496043</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9229487002741654</v>
+        <v>0.9229487002741545</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7824718042198826</v>
+        <v>0.7824718042198902</v>
       </c>
       <c r="U2" t="n">
-        <v>0.74278481395791</v>
+        <v>0.742784813957909</v>
       </c>
       <c r="V2" t="n">
         <v>0.4295490906116595</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3821038225020731</v>
+        <v>0.3821038225020721</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3701413666199607</v>
+        <v>0.37014136661996</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6031135112686283</v>
+        <v>0.6031135112686292</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6865913237358761</v>
+        <v>0.6865913237358801</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4294737624724881</v>
+        <v>0.4294737624724877</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9161328314554195</v>
+        <v>0.9161328314554219</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.368147948996003</v>
+        <v>0.368147948996001</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.4313659681005068</v>
+        <v>0.4313659681005058</v>
       </c>
     </row>
     <row r="3">
@@ -877,88 +877,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9607738728478112</v>
+        <v>0.9607738728492987</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06194604780141345</v>
+        <v>0.06194604780141476</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06651463624533963</v>
+        <v>0.06651463624533767</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4896315661116124</v>
+        <v>0.489631566111385</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5911639285697348</v>
+        <v>0.5911639285707966</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6915496703605043</v>
+        <v>0.6915496703603854</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4042373882992648</v>
+        <v>0.4042373882995827</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3675485482733503</v>
+        <v>0.3675485482732226</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7368409522134447</v>
+        <v>0.7368409522120496</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09149824894071062</v>
+        <v>0.09149824894108143</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4625254681645176</v>
+        <v>0.4625254681652543</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6567300166278311</v>
+        <v>0.6567300166308131</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8328407011972733</v>
+        <v>0.8328407011977239</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1780841774479616</v>
+        <v>0.1780841774483549</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4892511867384552</v>
+        <v>0.4892511867369181</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5788121681609619</v>
+        <v>0.5788121681602135</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4954121762631412</v>
+        <v>0.4954121762614403</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2060797439612242</v>
+        <v>0.2060797439612274</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01886641415117307</v>
+        <v>0.01886641415117276</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2773959855521944</v>
+        <v>0.2773959855521922</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4131920458843173</v>
+        <v>0.4131920458843183</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3296988184774222</v>
+        <v>0.3296988184774204</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5536920457211318</v>
+        <v>0.5536920457211365</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7783881464661462</v>
+        <v>0.7783881464661451</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.03055226066421775</v>
+        <v>0.03055226066421802</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9542856629133272</v>
+        <v>0.9542856629133266</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1020288511008911</v>
+        <v>0.1020288511008908</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.5648939458938979</v>
+        <v>0.5648939458939011</v>
       </c>
       <c r="AD3" t="n">
         <v>0.03108080651113966</v>
@@ -971,91 +971,91 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4705374894481844</v>
+        <v>0.4705374894463652</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006419066133136884</v>
+        <v>0.006419066133139494</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00495344707601938</v>
+        <v>0.004953447076019253</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06193548834243712</v>
+        <v>0.06193548834236109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09696368660067588</v>
+        <v>0.09696368660114713</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2691124367595044</v>
+        <v>0.2691124367593957</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2563471576806148</v>
+        <v>0.2563471576809973</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02273117052374208</v>
+        <v>0.02273117052372842</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03712599467179705</v>
+        <v>0.03712599467152515</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1378440755130802</v>
+        <v>0.1378440755138734</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6512613591599113</v>
+        <v>0.6512613591613885</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1626728715845844</v>
+        <v>0.1626728715865302</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9175891225589942</v>
+        <v>0.9175891225595868</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01111668959626613</v>
+        <v>0.01111668959632438</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7123120838360004</v>
+        <v>0.7123120838407393</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3543270548326203</v>
+        <v>0.3543270548319822</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7777843145484923</v>
+        <v>0.7777843145517005</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09433163421214995</v>
+        <v>0.09433163421215057</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4653689717637937</v>
+        <v>0.4653689717637886</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4090743073022777</v>
+        <v>0.4090743073022768</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0001638016216021482</v>
+        <v>0.0001638016216021503</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3435000050502738</v>
+        <v>0.3435000050502706</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01022712205141286</v>
+        <v>0.01022712205141289</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4577736449540722</v>
+        <v>0.4577736449540679</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.002205346592854998</v>
+        <v>0.00220534659285496</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.2490239262463172</v>
+        <v>0.249023926246314</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8918641392934467</v>
+        <v>0.8918641392934459</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.2458133560289951</v>
+        <v>0.2458133560289893</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.596502937630348e-05</v>
+        <v>2.596502937630317e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1065,91 +1065,91 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7998107282690421</v>
+        <v>0.7998107282700837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4526378165084493</v>
+        <v>0.4526378165087339</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2679433101660858</v>
+        <v>0.2679433101661373</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9585151432967683</v>
+        <v>0.9585151432969807</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2692972465507874</v>
+        <v>0.2692972465511811</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4836428184019006</v>
+        <v>0.4836428184019492</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9694106823335905</v>
+        <v>0.9694106823333444</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8535413953621702</v>
+        <v>0.8535413953622252</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1115609494397774</v>
+        <v>0.1115609494400087</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4250575656135547</v>
+        <v>0.4250575656143374</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8836627984479447</v>
+        <v>0.8836627984472326</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2379164215835579</v>
+        <v>0.2379164215845925</v>
       </c>
       <c r="N5" t="n">
-        <v>0.654441481240887</v>
+        <v>0.6544414812408927</v>
       </c>
       <c r="O5" t="n">
-        <v>0.339020829688936</v>
+        <v>0.3390208296893417</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9086900041579994</v>
+        <v>0.9086900041557722</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6593012661386806</v>
+        <v>0.659301266138649</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3334828207678716</v>
+        <v>0.3334828207669385</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6224950595370256</v>
+        <v>0.6224950595370266</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4638265661200682</v>
+        <v>0.4638265661200606</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1063532966939496</v>
+        <v>0.1063532966939491</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7909755516381001</v>
+        <v>0.7909755516381015</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8531964594547685</v>
+        <v>0.8531964594547679</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7559962948993288</v>
+        <v>0.7559962948993325</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5989057232722046</v>
+        <v>0.5989057232722039</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.127023786392425</v>
+        <v>0.1270237863924241</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4311310879361941</v>
+        <v>0.431131087936195</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.9162081189976431</v>
+        <v>0.9162081189976417</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.666846758524579</v>
+        <v>0.666846758524576</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1944342552404853</v>
+        <v>0.1944342552404835</v>
       </c>
     </row>
     <row r="6">
@@ -1159,91 +1159,91 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7877128059907472</v>
+        <v>0.7877128059887073</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01140991675194914</v>
+        <v>0.01140991675195187</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01086033822002328</v>
+        <v>0.01086033822002318</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5867671164012714</v>
+        <v>0.5867671164009032</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1739960537364227</v>
+        <v>0.1739960537357365</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3054491091286782</v>
+        <v>0.3054491091285819</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3865272719442505</v>
+        <v>0.3865272719438539</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01528027884822751</v>
+        <v>0.01528027884824409</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5213228952419731</v>
+        <v>0.5213228952435893</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0006616143761487485</v>
+        <v>0.0006616143761551431</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2761511957482083</v>
+        <v>0.2761511957489458</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9020925778113473</v>
+        <v>0.9020925778069124</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2190262848600442</v>
+        <v>0.219026284859823</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4319312841147074</v>
+        <v>0.4319312841157623</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2222529469519175</v>
+        <v>0.2222529469506656</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5994075925073322</v>
+        <v>0.5994075925063571</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8109871992739763</v>
+        <v>0.8109871992767645</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2465056286585052</v>
+        <v>0.2465056286585106</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6675123000405201</v>
+        <v>0.6675123000405163</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4200038691454898</v>
+        <v>0.4200038691454888</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1284363348465829</v>
+        <v>0.1284363348465828</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03111022423671586</v>
+        <v>0.03111022423671549</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4556078940051462</v>
+        <v>0.4556078940051499</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9608319341861387</v>
+        <v>0.9608319341861414</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.523416956702379</v>
+        <v>0.5234169567023772</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2477696370370595</v>
+        <v>0.247769637037057</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1850623460394183</v>
+        <v>0.1850623460394175</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.6938718027369231</v>
+        <v>0.6938718027369173</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.3047659047363371</v>
+        <v>0.3047659047363399</v>
       </c>
     </row>
     <row r="7">
@@ -1253,91 +1253,91 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5996827730160564</v>
+        <v>0.5996827730172227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1383070855907954</v>
+        <v>0.1383070855908248</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1180618194434507</v>
+        <v>0.1180618194434519</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1195890505401752</v>
+        <v>0.1195890505401069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7627286893848642</v>
+        <v>0.7627286893838322</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3856335557980966</v>
+        <v>0.3856335557980253</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1262876924657624</v>
+        <v>0.1262876924656441</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005861017067606352</v>
+        <v>0.005861017067608584</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6105719505395251</v>
+        <v>0.6105719505406083</v>
       </c>
       <c r="K7" t="n">
-        <v>1.637973157803438e-05</v>
+        <v>1.637973157815948e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3315414555993608</v>
+        <v>0.3315414555998412</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3426948280151199</v>
+        <v>0.3426948280169591</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03620703528524186</v>
+        <v>0.03620703528522729</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3250678940667764</v>
+        <v>0.3250678940673104</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6317673420947395</v>
+        <v>0.6317673420960768</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8061013924109965</v>
+        <v>0.8061013924104654</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2727272792851947</v>
+        <v>0.2727272792860993</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1356487719086949</v>
+        <v>0.1356487719086965</v>
       </c>
       <c r="T7" t="n">
-        <v>0.06759489275760881</v>
+        <v>0.06759489275760962</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4382008478975131</v>
+        <v>0.4382008478975136</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3151581217895066</v>
+        <v>0.3151581217895077</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1979847830124732</v>
+        <v>0.1979847830124717</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6041266368849877</v>
+        <v>0.604126636884991</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.923979119607234</v>
+        <v>0.9239791196072373</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2032246758727724</v>
+        <v>0.2032246758727708</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9702908160338906</v>
+        <v>0.9702908160338961</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.6613453740297213</v>
+        <v>0.6613453740297167</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.503987302517052</v>
+        <v>0.5039873025170565</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.5875705769755861</v>
+        <v>0.5875705769755843</v>
       </c>
     </row>
     <row r="8">
@@ -1347,91 +1347,91 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7128877617489988</v>
+        <v>0.7128877617505269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1922104646052256</v>
+        <v>0.1922104646054204</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08306567398085085</v>
+        <v>0.08306567398087443</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9818474414571134</v>
+        <v>0.9818474414567797</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5758943635116036</v>
+        <v>0.5758943635105925</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6576846192298273</v>
+        <v>0.6576846192297434</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1959673992597122</v>
+        <v>0.1959673992595529</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1819000468818613</v>
+        <v>0.1819000468819125</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4706941537707431</v>
+        <v>0.4706941537718378</v>
       </c>
       <c r="K8" t="n">
-        <v>0.450836336905161</v>
+        <v>0.450836336906373</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1451807002420472</v>
+        <v>0.1451807002415913</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4311733376244169</v>
+        <v>0.431173337626695</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9289558707968761</v>
+        <v>0.9289558707968248</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8111890017893738</v>
+        <v>0.8111890017904041</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6413548366041244</v>
+        <v>0.6413548366003177</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01980962776228608</v>
+        <v>0.01980962776229429</v>
       </c>
       <c r="R8" t="n">
-        <v>0.669082034847247</v>
+        <v>0.6690820348452384</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6749972377390629</v>
+        <v>0.6749972377390654</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3105980246174371</v>
+        <v>0.3105980246174383</v>
       </c>
       <c r="U8" t="n">
-        <v>0.877755933410891</v>
+        <v>0.8777559334108895</v>
       </c>
       <c r="V8" t="n">
         <v>0.08243543041001901</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8586300002407752</v>
+        <v>0.858630000240777</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1322426167940906</v>
+        <v>0.1322426167940917</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6830770816250482</v>
+        <v>0.6830770816250463</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1770903773890869</v>
+        <v>0.1770903773890842</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3284326586745584</v>
+        <v>0.3284326586745608</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5010696060365296</v>
+        <v>0.5010696060365275</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.08128644065461918</v>
+        <v>0.08128644065461915</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.020459345438865</v>
+        <v>0.02045934543886443</v>
       </c>
     </row>
     <row r="9">
@@ -1441,58 +1441,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9416915663847523</v>
+        <v>0.9416915663843161</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4987851317413241</v>
+        <v>0.4987851317412544</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5599825083783342</v>
+        <v>0.5599825083783095</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4353208457954404</v>
+        <v>0.4353208457953864</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6712138883919114</v>
+        <v>0.6712138883915403</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2396998222878718</v>
+        <v>0.2396998222878523</v>
       </c>
       <c r="H9" t="n">
-        <v>0.142705995308723</v>
+        <v>0.1427059953086787</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0005793540857358694</v>
+        <v>0.0005793540857360854</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5264969612312627</v>
+        <v>0.5264969612315841</v>
       </c>
       <c r="K9" t="n">
-        <v>3.347788629538542e-06</v>
+        <v>3.347788629550874e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.108418005740333</v>
+        <v>0.1084180057403469</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6626726327726173</v>
+        <v>0.6626726327736221</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2768196460110735</v>
+        <v>0.2768196460110077</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6702351166149</v>
+        <v>0.670235116615172</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5985299358174057</v>
+        <v>0.5985299358182239</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9070963285908533</v>
+        <v>0.9070963285903615</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4386216309130339</v>
+        <v>0.438621630913419</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2923430112454654</v>
+        <v>0.2923430112454679</v>
       </c>
       <c r="T9" t="n">
         <v>0.06792673766990007</v>
@@ -1501,31 +1501,31 @@
         <v>0.3082963119195538</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3341495919765533</v>
+        <v>0.3341495919765535</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1135662046070618</v>
+        <v>0.1135662046070608</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9073851959647474</v>
+        <v>0.9073851959647505</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.8718011132495289</v>
+        <v>0.8718011132495305</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.5961787390258145</v>
+        <v>0.5961787390258134</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.9230618183703653</v>
+        <v>0.9230618183703616</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6021437796434088</v>
+        <v>0.6021437796434039</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.352078268877375</v>
+        <v>0.3520782688773697</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.5490713090089534</v>
+        <v>0.5490713090089523</v>
       </c>
     </row>
     <row r="10">
@@ -1535,91 +1535,91 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6477817762470457</v>
+        <v>0.6477817762489595</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01244951740255328</v>
+        <v>0.01244951740255622</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01137014394348155</v>
+        <v>0.01137014394348127</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1904808879143011</v>
+        <v>0.1904808879141306</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2587928069377727</v>
+        <v>0.2587928069368553</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3912603351995558</v>
+        <v>0.3912603351994383</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1285102480121487</v>
+        <v>0.128510248011964</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00400697904152904</v>
+        <v>0.00400697904153311</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5640941786487939</v>
+        <v>0.5640941786504809</v>
       </c>
       <c r="K10" t="n">
-        <v>2.471777981285023e-05</v>
+        <v>2.471777981313067e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.273159156390403</v>
+        <v>0.2731591563911318</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7731999926429891</v>
+        <v>0.7731999926473225</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03534680993519337</v>
+        <v>0.03534680993515163</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2312466208419084</v>
+        <v>0.2312466208425952</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7869414249740017</v>
+        <v>0.7869414249715154</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7122150737737795</v>
+        <v>0.712215073772807</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3138110569820992</v>
+        <v>0.3138110569837517</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1360010022806599</v>
+        <v>0.1360010022806634</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2261710455187869</v>
+        <v>0.226171045518787</v>
       </c>
       <c r="U10" t="n">
-        <v>0.4053692619937505</v>
+        <v>0.4053692619937502</v>
       </c>
       <c r="V10" t="n">
-        <v>0.06675191425510951</v>
+        <v>0.06675191425510957</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04080642514956834</v>
+        <v>0.04080642514956787</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4320261675356901</v>
+        <v>0.4320261675356933</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9661926630163189</v>
+        <v>0.9661926630163221</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.3982685586467339</v>
+        <v>0.3982685586467315</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7953124985508315</v>
+        <v>0.7953124985508262</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.8615206485882408</v>
+        <v>0.8615206485882376</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5203952274036145</v>
+        <v>0.5203952274036188</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.7173997879001656</v>
+        <v>0.7173997879001626</v>
       </c>
     </row>
     <row r="11">
@@ -1629,91 +1629,91 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6489848418094237</v>
+        <v>0.6489848418085402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.241968853443192</v>
+        <v>0.2419688534431965</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2347809129770996</v>
+        <v>0.2347809129770887</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0881111509874028</v>
+        <v>0.08811115098736556</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9498455629447462</v>
+        <v>0.9498455629439239</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3453621166984274</v>
+        <v>0.3453621166983738</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3820209077375725</v>
+        <v>0.3820209077373515</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9980545787347079</v>
+        <v>0.9980545787346835</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5426368052975963</v>
+        <v>0.5426368052967556</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2775401547125111</v>
+        <v>0.2775401547130739</v>
       </c>
       <c r="L11" t="n">
-        <v>0.906443050581527</v>
+        <v>0.906443050582222</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6363487060487103</v>
+        <v>0.6363487060506507</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05454826326525705</v>
+        <v>0.05454826326523928</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7428975310952123</v>
+        <v>0.7428975310945238</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4130022130312165</v>
+        <v>0.4130022130328493</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5674594936991235</v>
+        <v>0.5674594936990782</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6751811675836046</v>
+        <v>0.6751811675848114</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1952015821771256</v>
+        <v>0.1952015821771264</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8562737601298047</v>
+        <v>0.8562737601298054</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3637772309167192</v>
+        <v>0.3637772309167203</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5689625045447192</v>
+        <v>0.5689625045447194</v>
       </c>
       <c r="W11" t="n">
-        <v>0.6312304584265237</v>
+        <v>0.6312304584265221</v>
       </c>
       <c r="X11" t="n">
-        <v>0.839128135884209</v>
+        <v>0.8391281358842063</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7955817632847577</v>
+        <v>0.7955817632847583</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.09520991825407149</v>
+        <v>0.09520991825407134</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7572304243567707</v>
+        <v>0.7572304243567719</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.8145680562290426</v>
+        <v>0.8145680562290405</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.9878778208176846</v>
+        <v>0.9878778208176862</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.5067691241020147</v>
+        <v>0.5067691241020165</v>
       </c>
     </row>
   </sheetData>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.3160079764148219</v>
+        <v>0.3160079764148217</v>
       </c>
     </row>
     <row r="3">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1797000094151171</v>
+        <v>0.179700009415117</v>
       </c>
     </row>
     <row r="4">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3315367442601868</v>
+        <v>0.3315367442601866</v>
       </c>
     </row>
     <row r="5">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1499007458948601</v>
+        <v>0.14990074589486</v>
       </c>
     </row>
     <row r="6">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.342225310563487</v>
+        <v>0.3422253105634868</v>
       </c>
     </row>
     <row r="7">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2909711212670124</v>
+        <v>0.2909711212670126</v>
       </c>
     </row>
     <row r="8">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2971513684794337</v>
+        <v>0.2971513684794336</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3345108564806381</v>
+        <v>0.3345108564806383</v>
       </c>
     </row>
     <row r="10">
